--- a/final_results/3/github/github_languages.xlsx
+++ b/final_results/3/github/github_languages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,20 +503,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>c#</t>
+          <t>objective-c</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -549,20 +549,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>python</t>
+          <t>javascript</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -595,20 +595,20 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>kotlin</t>
+          <t>go</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -641,20 +641,20 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>typescript</t>
+          <t>ruby</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -687,20 +687,20 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>javascript</t>
+          <t>java</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -733,20 +733,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>python</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -779,46 +779,460 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>css</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>c</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>scala</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>groovy</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>typescript</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>coffeescript</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>erlang</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>lex</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/final_results/3/github/github_languages.xlsx
+++ b/final_results/3/github/github_languages.xlsx
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>

--- a/final_results/3/github/github_languages.xlsx
+++ b/final_results/3/github/github_languages.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Desktop/tfg-ci/Pruebas_finales/3/results/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E797DC-0AAB-584C-81B9-79308967FF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5786347C-7076-3D40-8DAC-DFAE7D3683E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36020" yWindow="1220" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$5:$N$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -211,6 +222,2523 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>CI/Lenguaje</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Jenkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Travis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Circle CI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GitHub Actions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure Pipelines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bamboo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concourse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GitLab CI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AppVeyor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCD9-D147-9509-30F88F022F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Jenkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Travis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Circle CI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GitHub Actions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure Pipelines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bamboo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concourse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GitLab CI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AppVeyor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BCD9-D147-9509-30F88F022F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>objective-c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Jenkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Travis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Circle CI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GitHub Actions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure Pipelines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bamboo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concourse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GitLab CI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AppVeyor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BCD9-D147-9509-30F88F022F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ruby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Jenkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Travis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Circle CI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GitHub Actions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure Pipelines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bamboo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concourse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GitLab CI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AppVeyor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BCD9-D147-9509-30F88F022F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1185051535"/>
+        <c:axId val="1650043759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1185051535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1650043759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1650043759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1185051535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTALES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>objective-c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ruby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C2C-5D44-A452-19F108AB5629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1196620671"/>
+        <c:axId val="1223171295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1196620671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1223171295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1223171295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196620671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF770E0A-D056-524E-9CED-51185D1F4B26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03132ECA-6E1C-1246-856F-3F2BFA2E8637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,7 +3029,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -597,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUM(B2:N2)</f>
+        <f t="shared" ref="O2:O17" si="0">SUM(B2:N2)</f>
         <v>36</v>
       </c>
     </row>
@@ -645,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUM(B3:N3)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -693,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <f>SUM(B4:N4)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -741,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUM(B5:N5)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -789,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUM(B6:N6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -837,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUM(B7:N7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -885,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUM(B8:N8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -933,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f>SUM(B9:N9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -981,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <f>SUM(B10:N10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1029,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f>SUM(B11:N11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1077,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUM(B12:N12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1125,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f>SUM(B13:N13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f>SUM(B14:N14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1221,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f>SUM(B15:N15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1269,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f>SUM(B16:N16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1317,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <f>SUM(B17:N17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1330,51 +3858,51 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:N18" si="0">SUM(C2:C17)</f>
+        <f t="shared" ref="C18:N18" si="1">SUM(C2:C17)</f>
         <v>82</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1383,5 +3911,6 @@
     <sortCondition descending="1" ref="O2:O17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final_results/3/github/github_languages.xlsx
+++ b/final_results/3/github/github_languages.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Desktop/tfg-ci/Pruebas_finales/3/results/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5786347C-7076-3D40-8DAC-DFAE7D3683E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690F8791-5793-E04F-8E06-AFBAA71D88AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$5:$N$5</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Jenkins</t>
   </si>
@@ -61,9 +50,6 @@
   </si>
   <si>
     <t>Bamboo</t>
-  </si>
-  <si>
-    <t>Concourse</t>
   </si>
   <si>
     <t>GitLab CI</t>
@@ -384,9 +370,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jenkins</c:v>
                 </c:pt>
@@ -406,24 +392,21 @@
                   <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Concourse</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GitLab CI</c:v>
+                  <c:v>Codeship</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Codeship</c:v>
+                  <c:v>TeamCity</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TeamCity</c:v>
+                  <c:v>Bazel</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Bazel</c:v>
+                  <c:v>Semaphore CI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Semaphore CI</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
@@ -431,10 +414,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$N$2</c:f>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -454,7 +437,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -469,9 +452,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -569,9 +549,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jenkins</c:v>
                 </c:pt>
@@ -591,24 +571,21 @@
                   <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Concourse</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GitLab CI</c:v>
+                  <c:v>Codeship</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Codeship</c:v>
+                  <c:v>TeamCity</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TeamCity</c:v>
+                  <c:v>Bazel</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Bazel</c:v>
+                  <c:v>Semaphore CI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Semaphore CI</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
@@ -616,10 +593,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$N$3</c:f>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -654,9 +631,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -754,9 +728,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jenkins</c:v>
                 </c:pt>
@@ -776,24 +750,21 @@
                   <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Concourse</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GitLab CI</c:v>
+                  <c:v>Codeship</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Codeship</c:v>
+                  <c:v>TeamCity</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TeamCity</c:v>
+                  <c:v>Bazel</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Bazel</c:v>
+                  <c:v>Semaphore CI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Semaphore CI</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
@@ -801,10 +772,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$N$4</c:f>
+              <c:f>Sheet1!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -839,9 +810,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -939,9 +907,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jenkins</c:v>
                 </c:pt>
@@ -961,24 +929,21 @@
                   <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Concourse</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GitLab CI</c:v>
+                  <c:v>Codeship</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Codeship</c:v>
+                  <c:v>TeamCity</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TeamCity</c:v>
+                  <c:v>Bazel</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Bazel</c:v>
+                  <c:v>Semaphore CI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Semaphore CI</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
@@ -986,10 +951,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$N$5</c:f>
+              <c:f>Sheet1!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1024,9 +989,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1267,7 +1229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1365,12 +1327,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$5</c:f>
+              <c:f>Sheet1!$N$2:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13</c:v>
@@ -2668,13 +2630,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -2710,7 +2672,7 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -3026,10 +2988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3037,7 +2999,7 @@
     <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3074,16 +3036,13 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>29</v>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3104,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3122,16 +3081,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O17" si="0">SUM(B2:N2)</f>
-        <v>36</v>
+        <f>SUM(B2:M2)</f>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3170,16 +3126,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
+        <f>SUM(B3:M3)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3218,16 +3171,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:M4)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3266,16 +3216,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:M5)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3314,16 +3261,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:M6)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3362,16 +3306,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:M7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3410,16 +3351,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:M8)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3458,16 +3396,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:M9)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3506,16 +3441,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:M10)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3554,16 +3486,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:M11)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3602,16 +3531,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:M12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3650,16 +3576,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:M13)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3698,16 +3621,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:M14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3746,16 +3666,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:M15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3794,16 +3711,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:M16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3842,73 +3756,66 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:M17)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <f>SUM(B2:B17)</f>
         <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:N18" si="1">SUM(C2:C17)</f>
+        <f t="shared" ref="C18:M18" si="0">SUM(C2:C17)</f>
         <v>82</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
-    <sortCondition descending="1" ref="O2:O17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N17">
+    <sortCondition descending="1" ref="N2:N17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
